--- a/CSEReal2021.xlsx
+++ b/CSEReal2021.xlsx
@@ -214,6 +214,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -234,6 +235,7 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -308,13 +310,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.57"/>
   </cols>
@@ -325,6 +327,21 @@
       </c>
       <c r="B1" s="2" t="n">
         <v>61.1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>83.1</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="F1" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
